--- a/20918-홍영준-202301-B.xlsx
+++ b/20918-홍영준-202301-B.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
-    <sheet name="제1작업" sheetId="1" r:id="rId1"/>
-    <sheet name="제2작업" sheetId="2" r:id="rId2"/>
-    <sheet name="제3작업" sheetId="3" r:id="rId3"/>
+    <sheet name="제4작업" sheetId="4" r:id="rId1"/>
+    <sheet name="제1작업" sheetId="1" r:id="rId2"/>
+    <sheet name="제2작업" sheetId="2" r:id="rId3"/>
+    <sheet name="제3작업" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="출장비">제1작업!$F$5:$F$12</definedName>
@@ -202,7 +203,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="#,##0&quot;일&quot;"/>
+    <numFmt numFmtId="176" formatCode="#,##0&quot;일&quot;"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -536,77 +537,77 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -626,7 +627,1293 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="2000" b="1"/>
+              <a:t>영업부 및 기획부 출장 현황</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" sz="2000" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>출장비(단위:원)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-E2C4-4A2B-BEF4-E600E0C7A71D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                    <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(제1작업!$C$5,제1작업!$C$7,제1작업!$C$8,제1작업!$C$10,제1작업!$C$11,제1작업!$C$12)</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>민시후</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>윤정은</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>조재은</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>한효빈</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>김지은</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>김지효</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(제1작업!$F$5,제1작업!$F$7,제1작업!$F$8,제1작업!$F$10,제1작업!$F$11,제1작업!$F$12)</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>520000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>225000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>415000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>546000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>197000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E2C4-4A2B-BEF4-E600E0C7A71D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="1489172335"/>
+        <c:axId val="1489164431"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>제1작업!$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>출장일수</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>(제1작업!$C$5,제1작업!$C$7,제1작업!$C$8,제1작업!$C$10,제1작업!$C$11,제1작업!$C$12)</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>민시후</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>윤정은</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>조재은</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>한효빈</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>김지은</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>김지효</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(제1작업!$G$5,제1작업!$G$7,제1작업!$G$8,제1작업!$G$10,제1작업!$G$11,제1작업!$G$12)</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0"일"</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E2C4-4A2B-BEF4-E600E0C7A71D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1525437007"/>
+        <c:axId val="1525443663"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1489172335"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1489164431"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1489164431"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1489172335"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1525443663"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="#,##0&quot;일&quot;" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1525437007"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="2"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1525437007"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1525443663"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:blipFill>
+      <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+      <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
+    </a:blipFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100">
+          <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+          <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:userShapes r:id="rId4"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="95" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9306393" cy="6081947"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.66946</cdr:x>
+      <cdr:y>0.1104</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.79362</cdr:x>
+      <cdr:y>0.21694</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="모서리가 둥근 사각형 설명선 1"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="6230288" y="671435"/>
+          <a:ext cx="1155492" cy="648011"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -80375"/>
+            <a:gd name="adj2" fmla="val -24597"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" anchor="ctr"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>최대</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+            <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>출장비</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+            <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1034,8 +2321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView topLeftCell="B1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="G12" activeCellId="20" sqref="C4 F4 G4 C5 F5 G5 C7 F7 G7 C8 F8 G8 C10 F10 G10 C11 F11 G11 C12 F12 G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1050,31 +2337,31 @@
   <sheetData>
     <row r="3" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:12" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="22" t="s">
+      <c r="I4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="23" t="s">
+      <c r="J4" s="19" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1091,13 +2378,13 @@
       <c r="E5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="13">
         <v>520000</v>
       </c>
-      <c r="G5" s="28">
+      <c r="G5" s="22">
         <v>6</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="13">
         <v>44933</v>
       </c>
       <c r="I5" s="4"/>
@@ -1116,17 +2403,17 @@
       <c r="E6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="14">
         <v>128000</v>
       </c>
-      <c r="G6" s="29">
+      <c r="G6" s="23">
         <v>2</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H6" s="14">
         <v>44947</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="13"/>
+      <c r="J6" s="9"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
@@ -1141,17 +2428,17 @@
       <c r="E7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="14">
         <v>225000</v>
       </c>
-      <c r="G7" s="29">
+      <c r="G7" s="23">
         <v>2</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H7" s="14">
         <v>44933</v>
       </c>
       <c r="I7" s="2"/>
-      <c r="J7" s="13"/>
+      <c r="J7" s="9"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
@@ -1166,17 +2453,17 @@
       <c r="E8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="14">
         <v>415000</v>
       </c>
-      <c r="G8" s="29">
+      <c r="G8" s="23">
         <v>3</v>
       </c>
-      <c r="H8" s="18">
+      <c r="H8" s="14">
         <v>44929</v>
       </c>
       <c r="I8" s="2"/>
-      <c r="J8" s="13"/>
+      <c r="J8" s="9"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
@@ -1191,17 +2478,17 @@
       <c r="E9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="14">
         <v>280000</v>
       </c>
-      <c r="G9" s="29">
+      <c r="G9" s="23">
         <v>2</v>
       </c>
-      <c r="H9" s="18">
+      <c r="H9" s="14">
         <v>44941</v>
       </c>
       <c r="I9" s="2"/>
-      <c r="J9" s="13"/>
+      <c r="J9" s="9"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
@@ -1216,17 +2503,17 @@
       <c r="E10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="14">
         <v>546000</v>
       </c>
-      <c r="G10" s="29">
+      <c r="G10" s="23">
         <v>5</v>
       </c>
-      <c r="H10" s="18">
+      <c r="H10" s="14">
         <v>44943</v>
       </c>
       <c r="I10" s="2"/>
-      <c r="J10" s="13"/>
+      <c r="J10" s="9"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
@@ -1241,82 +2528,82 @@
       <c r="E11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="14">
         <v>197000</v>
       </c>
-      <c r="G11" s="29">
+      <c r="G11" s="23">
         <v>3</v>
       </c>
-      <c r="H11" s="18">
+      <c r="H11" s="14">
         <v>44932</v>
       </c>
       <c r="I11" s="2"/>
-      <c r="J11" s="13"/>
+      <c r="J11" s="9"/>
     </row>
     <row r="12" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="15">
         <v>150000</v>
       </c>
-      <c r="G12" s="30">
+      <c r="G12" s="24">
         <v>2</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="15">
         <v>44938</v>
       </c>
-      <c r="I12" s="9"/>
-      <c r="J12" s="14"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="10"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="11" t="s">
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="16"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="12"/>
     </row>
     <row r="14" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="24" t="s">
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="H14" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I14" s="24" t="s">
+      <c r="I14" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="J14" s="14"/>
+      <c r="J14" s="10"/>
     </row>
     <row r="15" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L15" s="27"/>
+      <c r="L15" s="21"/>
     </row>
     <row r="16" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L16" s="27"/>
+      <c r="L16" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/20918-홍영준-202301-B.xlsx
+++ b/20918-홍영준-202301-B.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="제4작업" sheetId="4" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="49">
   <si>
     <t>사원번호</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -71,9 +71,6 @@
   </si>
   <si>
     <t>C11-23</t>
-  </si>
-  <si>
-    <t>C11-23</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -195,6 +192,33 @@
   <si>
     <t>사원번호</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>E10-25</t>
+  </si>
+  <si>
+    <t>전체 개수</t>
+  </si>
+  <si>
+    <t>전체 평균</t>
+  </si>
+  <si>
+    <t>인사부 개수</t>
+  </si>
+  <si>
+    <t>영업부 개수</t>
+  </si>
+  <si>
+    <t>기획부 개수</t>
+  </si>
+  <si>
+    <t>인사부 평균</t>
+  </si>
+  <si>
+    <t>영업부 평균</t>
+  </si>
+  <si>
+    <t>기획부 평균</t>
   </si>
 </sst>
 </file>
@@ -205,7 +229,7 @@
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="#,##0&quot;일&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,6 +254,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="굴림"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="굴림"/>
@@ -515,7 +547,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -591,6 +623,12 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -607,6 +645,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -614,7 +667,50 @@
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1151,6 +1247,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1525443663"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1782,7 +1879,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="131" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1793,7 +1890,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9306393" cy="6081947"/>
+    <xdr:ext cx="9299599" cy="6071279"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="차트 1"/>
@@ -1920,13 +2017,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>10027</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>10026</xdr:rowOff>
+      <xdr:rowOff>68007</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>365961</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>125329</xdr:rowOff>
+      <xdr:rowOff>183310</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1935,8 +2032,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="135356" y="10026"/>
-          <a:ext cx="4035592" cy="456198"/>
+          <a:off x="134266" y="68007"/>
+          <a:ext cx="4041695" cy="645390"/>
         </a:xfrm>
         <a:prstGeom prst="parallelogram">
           <a:avLst/>
@@ -2001,15 +2098,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>16566</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>140807</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>695740</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>156018</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2033,8 +2130,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4495800" y="0"/>
-          <a:ext cx="2305050" cy="542925"/>
+          <a:off x="4522305" y="140807"/>
+          <a:ext cx="2294283" cy="545298"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2319,10 +2416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:L16"/>
+  <dimension ref="B1:L16"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G12" activeCellId="20" sqref="C4 F4 G4 C5 F5 G5 C7 F7 G7 C8 F8 G8 C10 F10 G10 C11 F11 G11 C12 F12 G12"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -2332,10 +2429,14 @@
     <col min="6" max="6" width="12.25" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="9" max="9" width="9" style="1"/>
+    <col min="10" max="10" width="13.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:12" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:12" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="16" t="s">
         <v>0</v>
@@ -2367,16 +2468,16 @@
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F5" s="13">
         <v>520000</v>
@@ -2387,21 +2488,27 @@
       <c r="H5" s="13">
         <v>44933</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="5"/>
+      <c r="I5" s="4" t="str">
+        <f>CHOOSE(WEEKDAY(H5,2),"월요일","화요일","수요일","목요일","금요일","토요일","일요일")</f>
+        <v>토요일</v>
+      </c>
+      <c r="J5" s="5" t="str">
+        <f>IF(G5&gt;=5,"출장일수 많음","")</f>
+        <v>출장일수 많음</v>
+      </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F6" s="14">
         <v>128000</v>
@@ -2412,21 +2519,27 @@
       <c r="H6" s="14">
         <v>44947</v>
       </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="9"/>
+      <c r="I6" s="2" t="str">
+        <f t="shared" ref="I6:I12" si="0">CHOOSE(WEEKDAY(H6,2),"월요일","화요일","수요일","목요일","금요일","토요일","일요일")</f>
+        <v>토요일</v>
+      </c>
+      <c r="J6" s="9" t="str">
+        <f t="shared" ref="J6:J12" si="1">IF(G6&gt;=5,"출장일수 많음","")</f>
+        <v/>
+      </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7" s="14">
         <v>225000</v>
@@ -2437,21 +2550,27 @@
       <c r="H7" s="14">
         <v>44933</v>
       </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="9"/>
+      <c r="I7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>토요일</v>
+      </c>
+      <c r="J7" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F8" s="14">
         <v>415000</v>
@@ -2462,21 +2581,27 @@
       <c r="H8" s="14">
         <v>44929</v>
       </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="9"/>
+      <c r="I8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>화요일</v>
+      </c>
+      <c r="J8" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F9" s="14">
         <v>280000</v>
@@ -2487,21 +2612,27 @@
       <c r="H9" s="14">
         <v>44941</v>
       </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="9"/>
+      <c r="I9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>일요일</v>
+      </c>
+      <c r="J9" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F10" s="14">
         <v>546000</v>
@@ -2512,21 +2643,27 @@
       <c r="H10" s="14">
         <v>44943</v>
       </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="9"/>
+      <c r="I10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>화요일</v>
+      </c>
+      <c r="J10" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>출장일수 많음</v>
+      </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F11" s="14">
         <v>197000</v>
@@ -2537,21 +2674,27 @@
       <c r="H11" s="14">
         <v>44932</v>
       </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="9"/>
+      <c r="I11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>금요일</v>
+      </c>
+      <c r="J11" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="12" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F12" s="15">
         <v>150000</v>
@@ -2562,42 +2705,60 @@
       <c r="H12" s="15">
         <v>44938</v>
       </c>
-      <c r="I12" s="7"/>
-      <c r="J12" s="10"/>
+      <c r="I12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>목요일</v>
+      </c>
+      <c r="J12" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="12"/>
+      <c r="B13" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="11">
+        <f>SUMIF(E5:E12,E6,G5:G12)/COUNTIF(E5:E12,E6)</f>
+        <v>2</v>
+      </c>
+      <c r="F13" s="31"/>
+      <c r="G13" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="12">
+        <f>MAX(출장비)</f>
+        <v>546000</v>
+      </c>
     </row>
     <row r="14" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="30"/>
+      <c r="B14" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="7" t="str">
+        <f>DSUM(B4:G12,G4,D4:D5)&amp;"일"</f>
+        <v>11일</v>
+      </c>
+      <c r="F14" s="32"/>
       <c r="G14" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>9</v>
       </c>
       <c r="I14" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="J14" s="10"/>
+      <c r="J14" s="10">
+        <f>VLOOKUP(H14,B5:H12,6,FALSE)</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L15" s="21"/>
@@ -2613,6 +2774,14 @@
     <mergeCell ref="G13:I13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="B5:J12">
+    <cfRule type="expression" dxfId="5" priority="1">
+      <formula>$F5&lt;=200000</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="2">
+      <formula>$F5&lt;=20000</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H14">
       <formula1>$B$5:$B$12</formula1>
@@ -2628,7 +2797,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B2" sqref="B2:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -2644,19 +2813,320 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="1"/>
+    <col min="2" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:7" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="13">
+        <v>128000</v>
+      </c>
+      <c r="G3" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="14">
+        <v>280000</v>
+      </c>
+      <c r="G4" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="6"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="14">
+        <f>SUBTOTAL(1,F3:F4)</f>
+        <v>204000</v>
+      </c>
+      <c r="G5" s="23"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="6"/>
+      <c r="C6" s="2">
+        <f>SUBTOTAL(3,C3:C4)</f>
+        <v>2</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="14"/>
+      <c r="G6" s="23"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="14">
+        <v>520000</v>
+      </c>
+      <c r="G7" s="23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="14">
+        <v>225000</v>
+      </c>
+      <c r="G8" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="14">
+        <v>197000</v>
+      </c>
+      <c r="G9" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="6"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="14">
+        <f>SUBTOTAL(1,F7:F9)</f>
+        <v>314000</v>
+      </c>
+      <c r="G10" s="23"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="6"/>
+      <c r="C11" s="2">
+        <f>SUBTOTAL(3,C7:C9)</f>
+        <v>3</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="14"/>
+      <c r="G11" s="23"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="14">
+        <v>415000</v>
+      </c>
+      <c r="G12" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="14">
+        <v>546000</v>
+      </c>
+      <c r="G13" s="23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="15">
+        <v>150000</v>
+      </c>
+      <c r="G14" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="35">
+        <f>SUBTOTAL(1,F12:F14)</f>
+        <v>370333.33333333331</v>
+      </c>
+      <c r="G15" s="36"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="34"/>
+      <c r="C16" s="34">
+        <f>SUBTOTAL(3,C12:C14)</f>
+        <v>3</v>
+      </c>
+      <c r="D16" s="34"/>
+      <c r="E16" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="35"/>
+      <c r="G16" s="36"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="35">
+        <f>SUBTOTAL(1,F3:F14)</f>
+        <v>307625</v>
+      </c>
+      <c r="G17" s="36"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="34"/>
+      <c r="C18" s="34">
+        <f>SUBTOTAL(3,C3:C14)</f>
+        <v>8</v>
+      </c>
+      <c r="D18" s="34"/>
+      <c r="E18" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="35"/>
+      <c r="G18" s="36"/>
+    </row>
+  </sheetData>
+  <sortState ref="B3:G10">
+    <sortCondition descending="1" ref="E3:E10"/>
+  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="B3:G18">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$F3&lt;=200000</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>$F3&lt;=20000</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>